--- a/RTL/fpga_msx2p/document/msx2p_pinassign.xlsx
+++ b/RTL/fpga_msx2p/document/msx2p_pinassign.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="264">
   <si>
     <t>PIN</t>
     <phoneticPr fontId="1"/>
@@ -829,6 +829,268 @@
   </si>
   <si>
     <t>VDP_SDO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_R0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_R3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_R4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_R5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_G0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_G1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_G3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_G4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_G5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_B0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_B1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_B3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_B4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_B5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VLED-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VLED+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_CLK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_HSYNC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_VSYNC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_EN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_VSYNC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIP_SW0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIP_SW1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIP_SW2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIP_SW3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SND_BCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SND_DIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SND_WS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SND_EN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KANA_LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAPS_LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HIGHSP_LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACCESS_LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CON_MISO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CON_MOSI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CON_SCLK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御用マイコンとの接続</t>
+    <rPh sb="0" eb="3">
+      <t>セイギョヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG_A0</t>
+  </si>
+  <si>
+    <t>PSG_A1</t>
+  </si>
+  <si>
+    <t>PSG_A2</t>
+  </si>
+  <si>
+    <t>PSG_A3</t>
+  </si>
+  <si>
+    <t>PSG_A4</t>
+  </si>
+  <si>
+    <t>PSG_A5</t>
+  </si>
+  <si>
+    <t>PSG_B0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG_B1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG_B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG_B3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG_B4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG_B5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG_B6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汎用入出力</t>
+    <rPh sb="0" eb="2">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウシュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -923,7 +1185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1105,13 +1367,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,6 +1509,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L210"/>
+  <dimension ref="B3:Q210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P123" sqref="P123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1543,6 +1876,8 @@
     <col min="10" max="10" width="22.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
@@ -1810,7 +2145,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="10">
         <v>12</v>
       </c>
@@ -1830,7 +2165,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="10">
         <v>13</v>
       </c>
@@ -1850,7 +2185,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19" s="10">
         <v>14</v>
       </c>
@@ -1870,7 +2205,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B20" s="10">
         <v>15</v>
       </c>
@@ -1898,7 +2233,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B21" s="10">
         <v>16</v>
       </c>
@@ -1918,7 +2253,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B22" s="10">
         <v>17</v>
       </c>
@@ -1938,7 +2273,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" s="10">
         <v>18</v>
       </c>
@@ -1958,7 +2293,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B24" s="10">
         <v>19</v>
       </c>
@@ -1978,7 +2313,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B25" s="10">
         <v>20</v>
       </c>
@@ -1998,7 +2333,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26" s="10">
         <v>21</v>
       </c>
@@ -2018,7 +2353,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B27" s="10">
         <v>22</v>
       </c>
@@ -2038,7 +2373,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28" s="10">
         <v>23</v>
       </c>
@@ -2058,7 +2393,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B29" s="10">
         <v>24</v>
       </c>
@@ -2078,7 +2413,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <v>25</v>
       </c>
@@ -2098,7 +2433,7 @@
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <v>26</v>
       </c>
@@ -2117,8 +2452,12 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O31" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="30"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" s="10">
         <v>27</v>
       </c>
@@ -2142,9 +2481,17 @@
         <v>111</v>
       </c>
       <c r="K32" s="20"/>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L32" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O32" s="31">
+        <v>1</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B33" s="10">
         <v>28</v>
       </c>
@@ -2171,8 +2518,14 @@
       <c r="L33" s="6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O33" s="10">
+        <v>2</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B34" s="10">
         <v>29</v>
       </c>
@@ -2196,9 +2549,17 @@
         <v>111</v>
       </c>
       <c r="K34" s="20"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L34" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O34" s="10">
+        <v>3</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B35" s="10">
         <v>30</v>
       </c>
@@ -2225,8 +2586,14 @@
       <c r="L35" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O35" s="10">
+        <v>4</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B36" s="10">
         <v>31</v>
       </c>
@@ -2245,8 +2612,14 @@
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O36" s="10">
+        <v>5</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B37" s="10">
         <v>32</v>
       </c>
@@ -2265,8 +2638,14 @@
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="15"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O37" s="10">
+        <v>6</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B38" s="10">
         <v>33</v>
       </c>
@@ -2290,9 +2669,17 @@
         <v>131</v>
       </c>
       <c r="K38" s="20"/>
-      <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L38" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="O38" s="10">
+        <v>7</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B39" s="10">
         <v>34</v>
       </c>
@@ -2319,8 +2706,14 @@
       <c r="L39" s="6" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O39" s="10">
+        <v>8</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B40" s="10">
         <v>35</v>
       </c>
@@ -2347,8 +2740,14 @@
       <c r="L40" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O40" s="10">
+        <v>9</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B41" s="10">
         <v>36</v>
       </c>
@@ -2373,8 +2772,14 @@
       </c>
       <c r="K41" s="21"/>
       <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O41" s="10">
+        <v>10</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B42" s="10">
         <v>37</v>
       </c>
@@ -2393,8 +2798,14 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="15"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O42" s="10">
+        <v>11</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B43" s="10">
         <v>38</v>
       </c>
@@ -2413,8 +2824,14 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="15"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O43" s="10">
+        <v>12</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B44" s="10">
         <v>39</v>
       </c>
@@ -2436,9 +2853,17 @@
         <v>111</v>
       </c>
       <c r="K44" s="20"/>
-      <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L44" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O44" s="10">
+        <v>13</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B45" s="10">
         <v>40</v>
       </c>
@@ -2463,8 +2888,14 @@
       </c>
       <c r="K45" s="21"/>
       <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O45" s="10">
+        <v>14</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B46" s="10">
         <v>41</v>
       </c>
@@ -2486,9 +2917,17 @@
         <v>111</v>
       </c>
       <c r="K46" s="20"/>
-      <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L46" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="O46" s="10">
+        <v>15</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B47" s="10">
         <v>42</v>
       </c>
@@ -2513,8 +2952,14 @@
       </c>
       <c r="K47" s="21"/>
       <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O47" s="10">
+        <v>16</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B48" s="10">
         <v>43</v>
       </c>
@@ -2533,8 +2978,14 @@
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="15"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O48" s="10">
+        <v>17</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B49" s="10">
         <v>44</v>
       </c>
@@ -2559,8 +3010,14 @@
       </c>
       <c r="K49" s="21"/>
       <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O49" s="10">
+        <v>18</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B50" s="10">
         <v>45</v>
       </c>
@@ -2582,9 +3039,17 @@
         <v>139</v>
       </c>
       <c r="K50" s="20"/>
-      <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L50" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O50" s="10">
+        <v>19</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B51" s="10">
         <v>46</v>
       </c>
@@ -2609,8 +3074,14 @@
       </c>
       <c r="K51" s="21"/>
       <c r="L51" s="6"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O51" s="10">
+        <v>20</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B52" s="10">
         <v>47</v>
       </c>
@@ -2633,8 +3104,14 @@
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O52" s="10">
+        <v>21</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B53" s="10">
         <v>48</v>
       </c>
@@ -2653,8 +3130,14 @@
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
       <c r="L53" s="15"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O53" s="10">
+        <v>22</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B54" s="10">
         <v>49</v>
       </c>
@@ -2673,8 +3156,14 @@
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="15"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O54" s="10">
+        <v>23</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B55" s="10">
         <v>50</v>
       </c>
@@ -2699,8 +3188,14 @@
       </c>
       <c r="K55" s="21"/>
       <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O55" s="10">
+        <v>24</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B56" s="10">
         <v>51</v>
       </c>
@@ -2711,7 +3206,9 @@
         <v>110</v>
       </c>
       <c r="E56" s="19"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="H56" s="10">
         <v>51</v>
       </c>
@@ -2722,9 +3219,17 @@
         <v>110</v>
       </c>
       <c r="K56" s="19"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L56" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="O56" s="10">
+        <v>25</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B57" s="10">
         <v>52</v>
       </c>
@@ -2749,8 +3254,14 @@
       </c>
       <c r="K57" s="21"/>
       <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O57" s="10">
+        <v>26</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B58" s="10">
         <v>53</v>
       </c>
@@ -2761,7 +3272,9 @@
         <v>110</v>
       </c>
       <c r="E58" s="19"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="H58" s="10">
         <v>53</v>
       </c>
@@ -2772,9 +3285,17 @@
         <v>110</v>
       </c>
       <c r="K58" s="19"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L58" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O58" s="10">
+        <v>27</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B59" s="10">
         <v>54</v>
       </c>
@@ -2793,8 +3314,14 @@
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="15"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O59" s="10">
+        <v>28</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B60" s="10">
         <v>55</v>
       </c>
@@ -2813,8 +3340,14 @@
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O60" s="10">
+        <v>29</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B61" s="10">
         <v>56</v>
       </c>
@@ -2839,8 +3372,14 @@
       </c>
       <c r="K61" s="22"/>
       <c r="L61" s="6"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O61" s="10">
+        <v>30</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B62" s="10">
         <v>57</v>
       </c>
@@ -2851,7 +3390,9 @@
         <v>110</v>
       </c>
       <c r="E62" s="19"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="H62" s="10">
         <v>57</v>
       </c>
@@ -2862,9 +3403,17 @@
         <v>110</v>
       </c>
       <c r="K62" s="19"/>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L62" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O62" s="10">
+        <v>31</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B63" s="10">
         <v>58</v>
       </c>
@@ -2889,8 +3438,14 @@
       </c>
       <c r="K63" s="22"/>
       <c r="L63" s="6"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O63" s="10">
+        <v>32</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B64" s="10">
         <v>59</v>
       </c>
@@ -2901,7 +3456,9 @@
         <v>110</v>
       </c>
       <c r="E64" s="19"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="H64" s="10">
         <v>59</v>
       </c>
@@ -2912,9 +3469,17 @@
         <v>110</v>
       </c>
       <c r="K64" s="19"/>
-      <c r="L64" s="6"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L64" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="O64" s="10">
+        <v>33</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B65" s="10">
         <v>60</v>
       </c>
@@ -2933,8 +3498,14 @@
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="15"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O65" s="10">
+        <v>34</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B66" s="10">
         <v>61</v>
       </c>
@@ -2953,8 +3524,14 @@
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
       <c r="L66" s="15"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O66" s="10">
+        <v>35</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B67" s="10">
         <v>62</v>
       </c>
@@ -2979,8 +3556,14 @@
       </c>
       <c r="K67" s="22"/>
       <c r="L67" s="6"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O67" s="10">
+        <v>36</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B68" s="10">
         <v>63</v>
       </c>
@@ -2991,7 +3574,9 @@
         <v>110</v>
       </c>
       <c r="E68" s="19"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="H68" s="10">
         <v>63</v>
       </c>
@@ -3002,9 +3587,17 @@
         <v>110</v>
       </c>
       <c r="K68" s="19"/>
-      <c r="L68" s="6"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L68" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="O68" s="10">
+        <v>37</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B69" s="10">
         <v>64</v>
       </c>
@@ -3029,8 +3622,14 @@
       </c>
       <c r="K69" s="22"/>
       <c r="L69" s="6"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O69" s="10">
+        <v>38</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B70" s="10">
         <v>65</v>
       </c>
@@ -3041,7 +3640,9 @@
         <v>110</v>
       </c>
       <c r="E70" s="19"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="H70" s="10">
         <v>65</v>
       </c>
@@ -3052,9 +3653,17 @@
         <v>110</v>
       </c>
       <c r="K70" s="19"/>
-      <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L70" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O70" s="10">
+        <v>39</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10">
         <v>66</v>
       </c>
@@ -3073,8 +3682,14 @@
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="15"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O71" s="11">
+        <v>40</v>
+      </c>
+      <c r="P71" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="10">
         <v>67</v>
       </c>
@@ -3098,7 +3713,7 @@
       <c r="K72" s="19"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B73" s="10">
         <v>68</v>
       </c>
@@ -3124,7 +3739,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="10">
         <v>69</v>
       </c>
@@ -3148,7 +3763,7 @@
       <c r="K74" s="19"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B75" s="10">
         <v>70</v>
       </c>
@@ -3174,7 +3789,7 @@
       <c r="K75" s="22"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B76" s="10">
         <v>71</v>
       </c>
@@ -3194,7 +3809,7 @@
       <c r="K76" s="14"/>
       <c r="L76" s="15"/>
     </row>
-    <row r="77" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="11">
         <v>72</v>
       </c>
@@ -3214,8 +3829,8 @@
       <c r="K77" s="17"/>
       <c r="L77" s="18"/>
     </row>
-    <row r="78" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B79" s="7">
         <v>73</v>
       </c>
@@ -3239,7 +3854,7 @@
       <c r="K79" s="26"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" s="10">
         <v>74</v>
       </c>
@@ -3330,7 +3945,9 @@
         <v>113</v>
       </c>
       <c r="E83" s="22"/>
-      <c r="F83" s="6"/>
+      <c r="F83" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="H83" s="10">
         <v>77</v>
       </c>
@@ -3380,7 +3997,9 @@
         <v>113</v>
       </c>
       <c r="E85" s="22"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="H85" s="10">
         <v>79</v>
       </c>
@@ -3430,7 +4049,9 @@
         <v>110</v>
       </c>
       <c r="E87" s="19"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="H87" s="10">
         <v>81</v>
       </c>
@@ -3474,7 +4095,9 @@
         <v>113</v>
       </c>
       <c r="E89" s="22"/>
-      <c r="F89" s="6"/>
+      <c r="F89" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="H89" s="10">
         <v>83</v>
       </c>
@@ -3485,7 +4108,9 @@
         <v>113</v>
       </c>
       <c r="K89" s="22"/>
-      <c r="L89" s="6"/>
+      <c r="L89" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B90" s="10">
@@ -3524,7 +4149,9 @@
         <v>113</v>
       </c>
       <c r="E91" s="22"/>
-      <c r="F91" s="6"/>
+      <c r="F91" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="H91" s="10">
         <v>85</v>
       </c>
@@ -3535,7 +4162,9 @@
         <v>113</v>
       </c>
       <c r="K91" s="22"/>
-      <c r="L91" s="6"/>
+      <c r="L91" s="6" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B92" s="10">
@@ -3614,7 +4243,9 @@
         <v>113</v>
       </c>
       <c r="E95" s="22"/>
-      <c r="F95" s="6"/>
+      <c r="F95" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="H95" s="10">
         <v>89</v>
       </c>
@@ -3625,7 +4256,9 @@
         <v>113</v>
       </c>
       <c r="K95" s="22"/>
-      <c r="L95" s="6"/>
+      <c r="L95" s="6" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B96" s="10">
@@ -3664,7 +4297,9 @@
         <v>113</v>
       </c>
       <c r="E97" s="22"/>
-      <c r="F97" s="6"/>
+      <c r="F97" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="H97" s="10">
         <v>91</v>
       </c>
@@ -3675,7 +4310,9 @@
         <v>113</v>
       </c>
       <c r="K97" s="22"/>
-      <c r="L97" s="6"/>
+      <c r="L97" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B98" s="10">
@@ -3765,7 +4402,9 @@
         <v>113</v>
       </c>
       <c r="K101" s="22"/>
-      <c r="L101" s="6"/>
+      <c r="L101" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B102" s="10">
@@ -3817,7 +4456,9 @@
         <v>113</v>
       </c>
       <c r="K103" s="22"/>
-      <c r="L103" s="6"/>
+      <c r="L103" s="6" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B104" s="10">
@@ -3909,7 +4550,9 @@
         <v>112</v>
       </c>
       <c r="K107" s="21"/>
-      <c r="L107" s="6"/>
+      <c r="L107" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B108" s="10">
@@ -3953,7 +4596,9 @@
         <v>112</v>
       </c>
       <c r="K109" s="21"/>
-      <c r="L109" s="6"/>
+      <c r="L109" s="6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B110" s="10">
@@ -4015,7 +4660,7 @@
       <c r="K112" s="14"/>
       <c r="L112" s="15"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B113" s="10">
         <v>107</v>
       </c>
@@ -4037,9 +4682,11 @@
         <v>115</v>
       </c>
       <c r="K113" s="24"/>
-      <c r="L113" s="6"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L113" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B114" s="10">
         <v>108</v>
       </c>
@@ -4059,7 +4706,7 @@
       <c r="K114" s="14"/>
       <c r="L114" s="15"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B115" s="10">
         <v>109</v>
       </c>
@@ -4070,7 +4717,9 @@
         <v>115</v>
       </c>
       <c r="E115" s="24"/>
-      <c r="F115" s="6"/>
+      <c r="F115" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="H115" s="10">
         <v>109</v>
       </c>
@@ -4081,9 +4730,17 @@
         <v>115</v>
       </c>
       <c r="K115" s="24"/>
-      <c r="L115" s="6"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L115" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="P115" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B116" s="10">
         <v>110</v>
       </c>
@@ -4103,7 +4760,7 @@
       <c r="K116" s="14"/>
       <c r="L116" s="15"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B117" s="10">
         <v>111</v>
       </c>
@@ -4122,8 +4779,14 @@
       <c r="J117" s="14"/>
       <c r="K117" s="14"/>
       <c r="L117" s="15"/>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="P117" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B118" s="10">
         <v>112</v>
       </c>
@@ -4143,7 +4806,7 @@
       <c r="K118" s="14"/>
       <c r="L118" s="15"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B119" s="10">
         <v>113</v>
       </c>
@@ -4154,7 +4817,9 @@
         <v>124</v>
       </c>
       <c r="E119" s="24"/>
-      <c r="F119" s="6"/>
+      <c r="F119" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="H119" s="10">
         <v>113</v>
       </c>
@@ -4167,7 +4832,7 @@
       <c r="K119" s="24"/>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B120" s="10">
         <v>114</v>
       </c>
@@ -4187,7 +4852,7 @@
       <c r="K120" s="14"/>
       <c r="L120" s="15"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B121" s="10">
         <v>115</v>
       </c>
@@ -4198,7 +4863,9 @@
         <v>125</v>
       </c>
       <c r="E121" s="24"/>
-      <c r="F121" s="6"/>
+      <c r="F121" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="H121" s="10">
         <v>115</v>
       </c>
@@ -4211,7 +4878,7 @@
       <c r="K121" s="24"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B122" s="10">
         <v>116</v>
       </c>
@@ -4231,7 +4898,7 @@
       <c r="K122" s="14"/>
       <c r="L122" s="15"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B123" s="10">
         <v>117</v>
       </c>
@@ -4251,7 +4918,7 @@
       <c r="K123" s="14"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B124" s="10">
         <v>118</v>
       </c>
@@ -4271,7 +4938,7 @@
       <c r="K124" s="14"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B125" s="10">
         <v>119</v>
       </c>
@@ -4295,7 +4962,7 @@
       <c r="K125" s="24"/>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B126" s="10">
         <v>120</v>
       </c>
@@ -4315,7 +4982,7 @@
       <c r="K126" s="14"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B127" s="10">
         <v>121</v>
       </c>
@@ -4339,7 +5006,7 @@
       <c r="K127" s="24"/>
       <c r="L127" s="6"/>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B128" s="10">
         <v>122</v>
       </c>
@@ -5164,7 +5831,9 @@
       <c r="E163" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F163" s="6"/>
+      <c r="F163" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="H163" s="10">
         <v>157</v>
       </c>
@@ -5177,7 +5846,9 @@
       <c r="K163" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="L163" s="6"/>
+      <c r="L163" s="6" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B164" s="10">
@@ -5192,7 +5863,9 @@
       <c r="E164" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F164" s="6"/>
+      <c r="F164" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="H164" s="10">
         <v>158</v>
       </c>
@@ -5205,7 +5878,9 @@
       <c r="K164" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="L164" s="6"/>
+      <c r="L164" s="6" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B165" s="10">
@@ -5220,7 +5895,9 @@
       <c r="E165" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F165" s="6"/>
+      <c r="F165" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="H165" s="10">
         <v>159</v>
       </c>
@@ -5233,7 +5910,9 @@
       <c r="K165" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="L165" s="6"/>
+      <c r="L165" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B166" s="10">
@@ -5248,7 +5927,9 @@
       <c r="E166" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F166" s="6"/>
+      <c r="F166" s="6" t="s">
+        <v>243</v>
+      </c>
       <c r="H166" s="10">
         <v>160</v>
       </c>
@@ -5261,7 +5942,9 @@
       <c r="K166" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="L166" s="6"/>
+      <c r="L166" s="6" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B167" s="10">
@@ -5316,7 +5999,9 @@
       <c r="E169" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F169" s="6"/>
+      <c r="F169" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="H169" s="10">
         <v>163</v>
       </c>
@@ -5329,7 +6014,9 @@
       <c r="K169" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="L169" s="6"/>
+      <c r="L169" s="6" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B170" s="10">
@@ -5364,7 +6051,9 @@
       <c r="E171" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F171" s="6"/>
+      <c r="F171" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="H171" s="10">
         <v>165</v>
       </c>
@@ -5377,7 +6066,9 @@
       <c r="K171" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="L171" s="6"/>
+      <c r="L171" s="6" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B172" s="10">
@@ -5452,7 +6143,9 @@
       <c r="E175" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F175" s="6"/>
+      <c r="F175" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="H175" s="10">
         <v>169</v>
       </c>
@@ -5465,7 +6158,9 @@
       <c r="K175" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="L175" s="6"/>
+      <c r="L175" s="6" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B176" s="10">
@@ -5500,7 +6195,9 @@
       <c r="E177" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F177" s="6"/>
+      <c r="F177" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="H177" s="10">
         <v>171</v>
       </c>
@@ -5513,7 +6210,9 @@
       <c r="K177" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="L177" s="6"/>
+      <c r="L177" s="6" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B178" s="10">
@@ -5586,7 +6285,9 @@
         <v>111</v>
       </c>
       <c r="E181" s="20"/>
-      <c r="F181" s="6"/>
+      <c r="F181" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="H181" s="10">
         <v>175</v>
       </c>
@@ -5636,7 +6337,9 @@
         <v>111</v>
       </c>
       <c r="E183" s="20"/>
-      <c r="F183" s="6"/>
+      <c r="F183" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="H183" s="10">
         <v>177</v>
       </c>
@@ -5726,7 +6429,9 @@
         <v>138</v>
       </c>
       <c r="E187" s="20"/>
-      <c r="F187" s="6"/>
+      <c r="F187" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="H187" s="10">
         <v>181</v>
       </c>
@@ -5776,7 +6481,9 @@
         <v>136</v>
       </c>
       <c r="E189" s="20"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="6" t="s">
+        <v>239</v>
+      </c>
       <c r="H189" s="10">
         <v>183</v>
       </c>

--- a/RTL/fpga_msx2p/document/msx2p_pinassign.xlsx
+++ b/RTL/fpga_msx2p/document/msx2p_pinassign.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="266">
   <si>
     <t>PIN</t>
     <phoneticPr fontId="1"/>
@@ -824,10 +824,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VDP_MISO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VDP_SDO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1092,6 +1088,16 @@
       <t>ニュウシュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_R2</t>
+  </si>
+  <si>
+    <t>CLOCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDP_MISO</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P123" sqref="P123"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2482,13 +2488,13 @@
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O32" s="31">
         <v>1</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.15">
@@ -2522,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.15">
@@ -2550,13 +2556,13 @@
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O34" s="10">
         <v>3</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
@@ -2590,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.15">
@@ -2616,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
@@ -2642,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.15">
@@ -2657,7 +2663,7 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="6" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="H38" s="10">
         <v>33</v>
@@ -2670,13 +2676,13 @@
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="6" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="O38" s="10">
         <v>7</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
@@ -2704,13 +2710,13 @@
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O39" s="10">
         <v>8</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
@@ -2725,7 +2731,7 @@
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="6" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="H40" s="10">
         <v>35</v>
@@ -2738,13 +2744,13 @@
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="6" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="O40" s="10">
         <v>9</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.15">
@@ -2776,7 +2782,7 @@
         <v>10</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.15">
@@ -2802,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
@@ -2828,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.15">
@@ -2854,13 +2860,13 @@
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O44" s="10">
         <v>13</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.15">
@@ -2892,7 +2898,7 @@
         <v>14</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.15">
@@ -2918,13 +2924,13 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O46" s="10">
         <v>15</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
@@ -2956,7 +2962,7 @@
         <v>16</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.15">
@@ -2982,7 +2988,7 @@
         <v>17</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.15">
@@ -3014,7 +3020,7 @@
         <v>18</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.15">
@@ -3040,13 +3046,13 @@
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O50" s="10">
         <v>19</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.15">
@@ -3078,7 +3084,7 @@
         <v>20</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.15">
@@ -3108,7 +3114,7 @@
         <v>21</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.15">
@@ -3134,7 +3140,7 @@
         <v>22</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.15">
@@ -3160,7 +3166,7 @@
         <v>23</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.15">
@@ -3192,7 +3198,7 @@
         <v>24</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.15">
@@ -3207,7 +3213,7 @@
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H56" s="10">
         <v>51</v>
@@ -3220,13 +3226,13 @@
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O56" s="10">
         <v>25</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.15">
@@ -3258,7 +3264,7 @@
         <v>26</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.15">
@@ -3273,7 +3279,7 @@
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H58" s="10">
         <v>53</v>
@@ -3286,13 +3292,13 @@
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O58" s="10">
         <v>27</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.15">
@@ -3318,7 +3324,7 @@
         <v>28</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.15">
@@ -3344,7 +3350,7 @@
         <v>29</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.15">
@@ -3376,7 +3382,7 @@
         <v>30</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.15">
@@ -3391,7 +3397,7 @@
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H62" s="10">
         <v>57</v>
@@ -3404,13 +3410,13 @@
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O62" s="10">
         <v>31</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.15">
@@ -3442,7 +3448,7 @@
         <v>32</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.15">
@@ -3457,7 +3463,7 @@
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H64" s="10">
         <v>59</v>
@@ -3470,13 +3476,13 @@
       </c>
       <c r="K64" s="19"/>
       <c r="L64" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O64" s="10">
         <v>33</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.15">
@@ -3502,7 +3508,7 @@
         <v>34</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.15">
@@ -3528,7 +3534,7 @@
         <v>35</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.15">
@@ -3560,7 +3566,7 @@
         <v>36</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.15">
@@ -3575,7 +3581,7 @@
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H68" s="10">
         <v>63</v>
@@ -3588,13 +3594,13 @@
       </c>
       <c r="K68" s="19"/>
       <c r="L68" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O68" s="10">
         <v>37</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.15">
@@ -3626,7 +3632,7 @@
         <v>38</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.15">
@@ -3641,7 +3647,7 @@
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H70" s="10">
         <v>65</v>
@@ -3654,13 +3660,13 @@
       </c>
       <c r="K70" s="19"/>
       <c r="L70" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="10">
         <v>39</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3686,7 +3692,7 @@
         <v>40</v>
       </c>
       <c r="P71" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.15">
@@ -3946,7 +3952,7 @@
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H83" s="10">
         <v>77</v>
@@ -3998,7 +4004,7 @@
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H85" s="10">
         <v>79</v>
@@ -4050,7 +4056,7 @@
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H87" s="10">
         <v>81</v>
@@ -4096,7 +4102,7 @@
       </c>
       <c r="E89" s="22"/>
       <c r="F89" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H89" s="10">
         <v>83</v>
@@ -4109,7 +4115,7 @@
       </c>
       <c r="K89" s="22"/>
       <c r="L89" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.15">
@@ -4150,7 +4156,7 @@
       </c>
       <c r="E91" s="22"/>
       <c r="F91" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H91" s="10">
         <v>85</v>
@@ -4163,7 +4169,7 @@
       </c>
       <c r="K91" s="22"/>
       <c r="L91" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.15">
@@ -4244,7 +4250,7 @@
       </c>
       <c r="E95" s="22"/>
       <c r="F95" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H95" s="10">
         <v>89</v>
@@ -4257,7 +4263,7 @@
       </c>
       <c r="K95" s="22"/>
       <c r="L95" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.15">
@@ -4298,7 +4304,7 @@
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H97" s="10">
         <v>91</v>
@@ -4311,7 +4317,7 @@
       </c>
       <c r="K97" s="22"/>
       <c r="L97" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.15">
@@ -4403,7 +4409,7 @@
       </c>
       <c r="K101" s="22"/>
       <c r="L101" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.15">
@@ -4457,7 +4463,7 @@
       </c>
       <c r="K103" s="22"/>
       <c r="L103" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.15">
@@ -4551,7 +4557,7 @@
       </c>
       <c r="K107" s="21"/>
       <c r="L107" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.15">
@@ -4597,7 +4603,7 @@
       </c>
       <c r="K109" s="21"/>
       <c r="L109" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.15">
@@ -4683,7 +4689,7 @@
       </c>
       <c r="K113" s="24"/>
       <c r="L113" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.15">
@@ -4718,7 +4724,7 @@
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H115" s="10">
         <v>109</v>
@@ -4731,13 +4737,13 @@
       </c>
       <c r="K115" s="24"/>
       <c r="L115" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P115" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q115" t="s">
         <v>247</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.15">
@@ -4780,10 +4786,10 @@
       <c r="K117" s="14"/>
       <c r="L117" s="15"/>
       <c r="P117" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q117" t="s">
         <v>262</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.15">
@@ -4818,7 +4824,7 @@
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H119" s="10">
         <v>113</v>
@@ -4864,7 +4870,7 @@
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H121" s="10">
         <v>115</v>
@@ -5832,7 +5838,7 @@
         <v>151</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H163" s="10">
         <v>157</v>
@@ -5847,7 +5853,7 @@
         <v>151</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.15">
@@ -5864,7 +5870,7 @@
         <v>151</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H164" s="10">
         <v>158</v>
@@ -5879,7 +5885,7 @@
         <v>151</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.15">
@@ -5896,7 +5902,7 @@
         <v>151</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H165" s="10">
         <v>159</v>
@@ -5911,7 +5917,7 @@
         <v>151</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.15">
@@ -5928,7 +5934,7 @@
         <v>151</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H166" s="10">
         <v>160</v>
@@ -5943,7 +5949,7 @@
         <v>151</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.15">
@@ -6000,7 +6006,7 @@
         <v>151</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H169" s="10">
         <v>163</v>
@@ -6015,7 +6021,7 @@
         <v>151</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.15">
@@ -6052,7 +6058,7 @@
         <v>151</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H171" s="10">
         <v>165</v>
@@ -6067,7 +6073,7 @@
         <v>151</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.15">
@@ -6144,7 +6150,7 @@
         <v>151</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H175" s="10">
         <v>169</v>
@@ -6159,7 +6165,7 @@
         <v>151</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.15">
@@ -6196,7 +6202,7 @@
         <v>151</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H177" s="10">
         <v>171</v>
@@ -6211,7 +6217,7 @@
         <v>151</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.15">
@@ -6286,7 +6292,7 @@
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H181" s="10">
         <v>175</v>
@@ -6338,7 +6344,7 @@
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H183" s="10">
         <v>177</v>
@@ -6430,7 +6436,7 @@
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H187" s="10">
         <v>181</v>
@@ -6482,7 +6488,7 @@
       </c>
       <c r="E189" s="20"/>
       <c r="F189" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H189" s="10">
         <v>183</v>
